--- a/data/excel/source data 对接版.xlsx
+++ b/data/excel/source data 对接版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinding/Desktop/Github/energy-supply-v2/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99AA7F-DEDA-5E49-8611-D9E765CC7CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AACA61-D75F-F641-85E5-2D06CA23ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16540" activeTab="9" xr2:uid="{25DC4B84-6F09-4803-9B05-C6AAD96E51D9}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16540" activeTab="11" xr2:uid="{25DC4B84-6F09-4803-9B05-C6AAD96E51D9}"/>
   </bookViews>
   <sheets>
     <sheet name="机组信息" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="光伏政策约束" sheetId="10" r:id="rId8"/>
     <sheet name="风电政策约束" sheetId="11" r:id="rId9"/>
     <sheet name="资源潜力" sheetId="12" r:id="rId10"/>
+    <sheet name="开采-调入-调出" sheetId="13" r:id="rId11"/>
+    <sheet name="电网矩阵" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -996,7 +998,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="197">
   <si>
     <t>coal</t>
   </si>
@@ -1731,6 +1733,42 @@
   </si>
   <si>
     <t>煤油气是资源PJ，后面几个是装机上限GW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal-extract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil-extract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas-extract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal-in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil-in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas-in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal-out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil-out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas-out</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3443,8 +3481,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4453,6 +4491,3979 @@
     <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FCFC90-2EDA-2844-8EF0-733277FEC95A}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="C2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="D2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="F2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="G2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="H2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="I2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="J2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="C3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="E3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="F3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="H3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="I3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="C4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="E4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="F4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="G4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="H4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="I4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="J4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="C5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0</v>
+      </c>
+      <c r="E5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="F5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="57">
+        <v>0</v>
+      </c>
+      <c r="H5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="I5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="C6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="D6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="E6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="F6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="G6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="H6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="I6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="J6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="C7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="E7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="F7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="G7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="H7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="I7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="J7" s="57">
+        <v>1490.664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="C8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="D8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="F8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="G8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="H8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="I8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="J8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="C9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="D9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="E9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="F9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="G9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="H9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="I9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="J9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="D10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="E10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="F10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="G10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="H10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="I10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="J10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="C11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="D11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="F11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="G11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="I11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="J11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="C12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="D12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="E12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="F12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="G12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="H12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="I12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="J12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="C13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="D13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="F13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="G13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="H13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="I13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="J13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="C14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="D14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="E14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="F14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="G14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="H14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="I14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="J14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="C15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="57">
+        <v>0</v>
+      </c>
+      <c r="E15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="F15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="I15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="D16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="E16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="G16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="H16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="I16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="J16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="C17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="D17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="E17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="F17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="G17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="H17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="I17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="J17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="C18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="F18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="I18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="C19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="D19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="E19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="F19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="G19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="H19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="I19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="J19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="C20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="D20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="E20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="F20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="G20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="H20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="I20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="J20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="C21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="D21" s="57">
+        <v>0</v>
+      </c>
+      <c r="E21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="F21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="G21" s="57">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="I21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="J21" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="C22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="D22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="E22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="F22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="G22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="H22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="I22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="J22" s="57">
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="C23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="D23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="E23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="F23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="G23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="H23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="I23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="J23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="57">
+        <v>847540.06</v>
+      </c>
+      <c r="C24" s="57">
+        <v>572049.32999999996</v>
+      </c>
+      <c r="D24" s="57">
+        <v>67.83</v>
+      </c>
+      <c r="E24" s="57">
+        <v>847540.06</v>
+      </c>
+      <c r="F24" s="57">
+        <v>572049.32999999996</v>
+      </c>
+      <c r="G24" s="57">
+        <v>67.83</v>
+      </c>
+      <c r="H24" s="57">
+        <v>847540.06</v>
+      </c>
+      <c r="I24" s="57">
+        <v>572049.32999999996</v>
+      </c>
+      <c r="J24" s="57">
+        <v>67.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="57">
+        <v>2092.02</v>
+      </c>
+      <c r="C25" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="57">
+        <v>165.85100000000003</v>
+      </c>
+      <c r="E25" s="57">
+        <v>2092.02</v>
+      </c>
+      <c r="F25" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="57">
+        <v>165.85100000000003</v>
+      </c>
+      <c r="H25" s="57">
+        <v>2092.02</v>
+      </c>
+      <c r="I25" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J25" s="57">
+        <v>165.85100000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="57">
+        <v>8157162.54</v>
+      </c>
+      <c r="C26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="57">
+        <v>1142.8690000000001</v>
+      </c>
+      <c r="E26" s="57">
+        <v>8157162.54</v>
+      </c>
+      <c r="F26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="57">
+        <v>1142.8690000000001</v>
+      </c>
+      <c r="H26" s="57">
+        <v>8157162.54</v>
+      </c>
+      <c r="I26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="57">
+        <v>1142.8690000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="57">
+        <v>635534.76</v>
+      </c>
+      <c r="C27" s="57">
+        <v>10542065.34</v>
+      </c>
+      <c r="D27" s="57">
+        <v>5869.9550000000008</v>
+      </c>
+      <c r="E27" s="57">
+        <v>635534.76</v>
+      </c>
+      <c r="F27" s="57">
+        <v>10542065.34</v>
+      </c>
+      <c r="G27" s="57">
+        <v>5869.9550000000008</v>
+      </c>
+      <c r="H27" s="57">
+        <v>635534.76</v>
+      </c>
+      <c r="I27" s="57">
+        <v>10542065.34</v>
+      </c>
+      <c r="J27" s="57">
+        <v>5869.9550000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="57">
+        <v>93136.73</v>
+      </c>
+      <c r="C28" s="57">
+        <v>449920.49</v>
+      </c>
+      <c r="D28" s="57">
+        <v>464.17</v>
+      </c>
+      <c r="E28" s="57">
+        <v>93136.73</v>
+      </c>
+      <c r="F28" s="57">
+        <v>449920.49</v>
+      </c>
+      <c r="G28" s="57">
+        <v>464.17</v>
+      </c>
+      <c r="H28" s="57">
+        <v>93136.73</v>
+      </c>
+      <c r="I28" s="57">
+        <v>449920.49</v>
+      </c>
+      <c r="J28" s="57">
+        <v>464.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="57">
+        <v>37734392.350000001</v>
+      </c>
+      <c r="C29" s="57">
+        <v>13430946.43</v>
+      </c>
+      <c r="D29" s="57">
+        <v>4548.9989999999998</v>
+      </c>
+      <c r="E29" s="57">
+        <v>37734392.350000001</v>
+      </c>
+      <c r="F29" s="57">
+        <v>13430946.43</v>
+      </c>
+      <c r="G29" s="57">
+        <v>4548.9989999999998</v>
+      </c>
+      <c r="H29" s="57">
+        <v>37734392.350000001</v>
+      </c>
+      <c r="I29" s="57">
+        <v>13430946.43</v>
+      </c>
+      <c r="J29" s="57">
+        <v>4548.9989999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="57">
+        <v>916032.8</v>
+      </c>
+      <c r="C30" s="57">
+        <v>3756.61</v>
+      </c>
+      <c r="D30" s="57">
+        <v>0</v>
+      </c>
+      <c r="E30" s="57">
+        <v>916032.8</v>
+      </c>
+      <c r="F30" s="57">
+        <v>3756.61</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0</v>
+      </c>
+      <c r="H30" s="57">
+        <v>916032.8</v>
+      </c>
+      <c r="I30" s="57">
+        <v>3756.61</v>
+      </c>
+      <c r="J30" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="57">
+        <v>920.49</v>
+      </c>
+      <c r="C31" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="57">
+        <v>0</v>
+      </c>
+      <c r="E31" s="57">
+        <v>920.49</v>
+      </c>
+      <c r="F31" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0</v>
+      </c>
+      <c r="H31" s="57">
+        <v>920.49</v>
+      </c>
+      <c r="I31" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J31" s="57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA6919-379C-F940-9A98-A57A0E965F87}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="A1:AE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="31" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="19" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="C2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="D2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="F2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="G2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="H2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="I2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="J2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="L2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="M2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="N2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="O2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="P2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="Q2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="R2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="S2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="T2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="U2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="V2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="W2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="X2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="Y2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="Z2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="AA2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="AB2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="AC2" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="AD2" s="57">
+        <v>93.53</v>
+      </c>
+      <c r="AE2" s="57">
+        <v>28.196000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="19" customHeight="1">
+      <c r="A3" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="C3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="E3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="F3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="H3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="I3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="K3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="L3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="M3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="N3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="O3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="Q3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="R3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="S3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="T3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="U3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="V3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="W3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="X3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="Y3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="Z3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="AA3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AB3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="AC3" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="AD3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AE3" s="57">
+        <v>395.40900000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="19" customHeight="1">
+      <c r="A4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="C4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="E4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="F4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="G4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="H4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="I4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="J4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="K4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="L4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="M4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="N4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="O4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="P4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="R4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="S4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="T4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="U4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="V4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="W4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="X4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="Y4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="Z4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="AA4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="AB4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="AC4" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="AD4" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="AE4" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="19" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="C5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0</v>
+      </c>
+      <c r="E5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="F5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="57">
+        <v>0</v>
+      </c>
+      <c r="H5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="I5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0</v>
+      </c>
+      <c r="K5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="L5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="57">
+        <v>0</v>
+      </c>
+      <c r="N5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="O5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="P5" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="R5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="S5" s="57">
+        <v>0</v>
+      </c>
+      <c r="T5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="U5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="V5" s="57">
+        <v>0</v>
+      </c>
+      <c r="W5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="X5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="Y5" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="AA5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AB5" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="AD5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AE5" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="19" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="C6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="D6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="E6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="F6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="G6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="H6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="I6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="J6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="K6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="L6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="M6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="N6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="O6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="P6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="R6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="S6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="T6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="U6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="V6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="W6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="X6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="AA6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="AB6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="AC6" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="AD6" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="AE6" s="57">
+        <v>21.014000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="19" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="C7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="E7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="F7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="G7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="H7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="I7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="J7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="K7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="L7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="M7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="N7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="O7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="P7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="R7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="S7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="T7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="U7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="V7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="W7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="X7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="Y7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="AA7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="AB7" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="AC7" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="AD7" s="57">
+        <v>483.22</v>
+      </c>
+      <c r="AE7" s="57">
+        <v>1490.664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="19" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="C8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="D8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="F8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="G8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="H8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="I8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="J8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="K8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="L8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="M8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="N8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="O8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="P8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="R8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="S8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="T8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="U8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="V8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="W8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="X8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="Y8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="AA8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="AB8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="AC8" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="AD8" s="57">
+        <v>5284.2</v>
+      </c>
+      <c r="AE8" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="19" customHeight="1">
+      <c r="A9" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="C9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="D9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="E9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="F9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="G9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="H9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="I9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="J9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="K9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="L9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="M9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="N9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="O9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="P9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="R9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="S9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="T9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="U9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="V9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="W9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="X9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="AA9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="AB9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="AC9" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="AD9" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="AE9" s="57">
+        <v>42.161000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="19" customHeight="1">
+      <c r="A10" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="D10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="E10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="F10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="G10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="H10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="I10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="J10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="K10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="L10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="M10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="N10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="O10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="P10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="R10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="S10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="T10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="U10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="V10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="W10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="X10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="AA10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="AB10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="AC10" s="57">
+        <v>20.92</v>
+      </c>
+      <c r="AD10" s="57">
+        <v>1091.1300000000001</v>
+      </c>
+      <c r="AE10" s="57">
+        <v>13.699000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="19" customHeight="1">
+      <c r="A11" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="C11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="D11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="F11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="G11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="I11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="J11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="K11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="L11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="M11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="N11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="O11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="P11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="R11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="S11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="T11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="U11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="V11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="W11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="X11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="AA11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="AB11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="AC11" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="AD11" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="AE11" s="57">
+        <v>77.671999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="19" customHeight="1">
+      <c r="A12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="C12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="D12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="E12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="F12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="G12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="H12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="I12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="J12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="K12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="L12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="M12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="N12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="O12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="P12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="R12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="S12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="T12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="U12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="V12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="W12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="X12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="Y12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="Z12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="AA12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="AB12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="AC12" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="AD12" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="AE12" s="57">
+        <v>607.41100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="19" customHeight="1">
+      <c r="A13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="C13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="D13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="F13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="G13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="H13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="I13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="J13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="K13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="L13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="M13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="N13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="O13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="P13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="Q13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="R13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="S13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="T13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="U13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="V13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="W13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="X13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="Y13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="AA13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="AB13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="AC13" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="AD13" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="AE13" s="57">
+        <v>39.368000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="19" customHeight="1">
+      <c r="A14" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="C14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="D14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="E14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="F14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="G14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="H14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="I14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="J14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="K14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="L14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="M14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="N14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="O14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="P14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="R14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="S14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="T14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="U14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="V14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="W14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="X14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="Y14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="Z14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="AA14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="AB14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="AC14" s="57">
+        <v>4267.72</v>
+      </c>
+      <c r="AD14" s="57">
+        <v>7295</v>
+      </c>
+      <c r="AE14" s="57">
+        <v>65.037000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="19" customHeight="1">
+      <c r="A15" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="C15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="57">
+        <v>0</v>
+      </c>
+      <c r="E15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="F15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="I15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J15" s="57">
+        <v>0</v>
+      </c>
+      <c r="K15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="L15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="M15" s="57">
+        <v>0</v>
+      </c>
+      <c r="N15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="O15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="R15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="S15" s="57">
+        <v>0</v>
+      </c>
+      <c r="T15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="U15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="V15" s="57">
+        <v>0</v>
+      </c>
+      <c r="W15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="X15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="Y15" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="AA15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AB15" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="AD15" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AE15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="19" customHeight="1">
+      <c r="A16" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="D16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="E16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="G16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="H16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="I16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="J16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="K16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="L16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="M16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="N16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="O16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="P16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="R16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="S16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="T16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="U16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="V16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="W16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="X16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="Y16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Z16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AA16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AB16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="AC16" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AD16" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AE16" s="57">
+        <v>266.13300000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="19" customHeight="1">
+      <c r="A17" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="C17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="D17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="E17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="F17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="G17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="H17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="I17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="J17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="K17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="L17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="M17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="N17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="O17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="P17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="R17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="S17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="T17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="U17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="V17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="W17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="X17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="Y17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Z17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AA17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AB17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="AC17" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AD17" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AE17" s="57">
+        <v>162.12700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="19" customHeight="1">
+      <c r="A18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="C18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="F18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="I18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="L18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="M18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="O18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="P18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="R18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="S18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="U18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="V18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="W18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="X18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="Y18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Z18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AA18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AB18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AC18" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AD18" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AE18" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19" customHeight="1">
+      <c r="A19" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="C19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="D19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="E19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="F19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="G19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="H19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="I19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="J19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="K19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="L19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="M19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="N19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="O19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="P19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Q19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="R19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="S19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="T19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="U19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="V19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="W19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="X19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="Y19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Z19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AA19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AB19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="AC19" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AD19" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AE19" s="57">
+        <v>82.460000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="19" customHeight="1">
+      <c r="A20" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="C20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="D20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="E20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="F20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="G20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="H20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="I20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="J20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="K20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="L20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="M20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="N20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="O20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="P20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Q20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="R20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="S20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="T20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="U20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="V20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="W20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="X20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="Y20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Z20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AA20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AB20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="AC20" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AD20" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AE20" s="57">
+        <v>339.81500000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="19" customHeight="1">
+      <c r="A21" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="C21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="D21" s="57">
+        <v>0</v>
+      </c>
+      <c r="E21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="F21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="G21" s="57">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="I21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="J21" s="57">
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="L21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="M21" s="57">
+        <v>0</v>
+      </c>
+      <c r="N21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="O21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="P21" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="R21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="S21" s="57">
+        <v>0</v>
+      </c>
+      <c r="T21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="U21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="V21" s="57">
+        <v>0</v>
+      </c>
+      <c r="W21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="X21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="Y21" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AA21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="AB21" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AD21" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="AE21" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="19" customHeight="1">
+      <c r="A22" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="C22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="D22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="E22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="F22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="G22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="H22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="I22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="J22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="K22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="L22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="M22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="N22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="O22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="P22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="Q22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="R22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="S22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="T22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="U22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="V22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="W22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="X22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="Y22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="Z22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AA22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AB22" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="AC22" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AD22" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AE22" s="57">
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="19" customHeight="1">
+      <c r="A23" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="C23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="D23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="E23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="F23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="G23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="H23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="I23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="J23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="K23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="L23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="M23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="N23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="O23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="P23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Q23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="R23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="S23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="T23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="U23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="V23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="W23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="X23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="Y23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Z23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AA23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AB23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="AC23" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AD23" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AE23" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="19" customHeight="1">
+      <c r="A24" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="C24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="D24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="E24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="F24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="G24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="H24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="I24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="J24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="K24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="L24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="M24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="N24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="O24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="P24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Q24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="R24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="S24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="T24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="U24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="V24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="W24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="X24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="Y24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Z24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AA24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AB24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="AC24" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AD24" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AE24" s="57">
+        <v>266.13300000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="19" customHeight="1">
+      <c r="A25" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="C25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="D25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="E25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="F25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="G25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="H25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="I25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="J25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="K25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="L25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="M25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="N25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="O25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="P25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Q25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="R25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="S25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="T25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="U25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="V25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="W25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="X25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="Y25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Z25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AA25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AB25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="AC25" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AD25" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AE25" s="57">
+        <v>162.12700000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="19" customHeight="1">
+      <c r="A26" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="C26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="F26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="I26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="L26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="M26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="O26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="P26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="R26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="S26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="U26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="V26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="W26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="X26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="Y26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Z26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AA26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AB26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AC26" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AD26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AE26" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="19" customHeight="1">
+      <c r="A27" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="C27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="D27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="E27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="F27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="G27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="H27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="I27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="J27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="K27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="L27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="M27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="N27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="O27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="P27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Q27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="R27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="S27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="T27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="U27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="V27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="W27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="X27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="Y27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Z27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AA27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AB27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="AC27" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AD27" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AE27" s="57">
+        <v>82.460000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="19" customHeight="1">
+      <c r="A28" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="C28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="D28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="E28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="F28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="G28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="H28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="I28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="J28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="K28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="L28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="M28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="N28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="O28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="P28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Q28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="R28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="S28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="T28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="U28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="V28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="W28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="X28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="Y28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Z28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AA28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AB28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="AC28" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AD28" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AE28" s="57">
+        <v>339.81500000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="19" customHeight="1">
+      <c r="A29" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="C29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="D29" s="57">
+        <v>0</v>
+      </c>
+      <c r="E29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="F29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="G29" s="57">
+        <v>0</v>
+      </c>
+      <c r="H29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="I29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="J29" s="57">
+        <v>0</v>
+      </c>
+      <c r="K29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="L29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="M29" s="57">
+        <v>0</v>
+      </c>
+      <c r="N29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="O29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="P29" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="R29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="S29" s="57">
+        <v>0</v>
+      </c>
+      <c r="T29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="U29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="V29" s="57">
+        <v>0</v>
+      </c>
+      <c r="W29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="X29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="Y29" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AA29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="AB29" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AD29" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="AE29" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="19" customHeight="1">
+      <c r="A30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="C30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="D30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="E30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="F30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="G30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="H30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="I30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="J30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="K30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="L30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="M30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="N30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="O30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="P30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="Q30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="R30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="S30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="T30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="U30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="V30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="W30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="X30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="Y30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="Z30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AA30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AB30" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="AC30" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AD30" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AE30" s="57">
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="19" customHeight="1">
+      <c r="A31" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="C31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="D31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="E31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="F31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="G31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="H31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="I31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="J31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="K31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="L31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="M31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="N31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="O31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="P31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Q31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="R31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="S31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="T31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="U31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="V31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="W31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="X31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="Y31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Z31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AA31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AB31" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="AC31" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AD31" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AE31" s="57">
+        <v>6296.4860000000008</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/source data 对接版.xlsx
+++ b/data/excel/source data 对接版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinding/Desktop/Github/energy-supply-v2/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AACA61-D75F-F641-85E5-2D06CA23ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59995F73-61A3-2C4D-8A1F-00E1414B2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16540" activeTab="11" xr2:uid="{25DC4B84-6F09-4803-9B05-C6AAD96E51D9}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{25DC4B84-6F09-4803-9B05-C6AAD96E51D9}"/>
   </bookViews>
   <sheets>
     <sheet name="机组信息" sheetId="3" r:id="rId1"/>
@@ -5515,7 +5515,7 @@
   </sheetPr>
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -8479,7 +8479,7 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>

--- a/data/excel/source data 对接版.xlsx
+++ b/data/excel/source data 对接版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinding/Desktop/Github/energy-supply-v2/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC86EF-6E42-7743-87B9-A8555BCDC756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CD3EC-ADC6-564E-95BD-3FB6F5B1EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16540" activeTab="11" xr2:uid="{25DC4B84-6F09-4803-9B05-C6AAD96E51D9}"/>
   </bookViews>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="197">
   <si>
     <t>coal</t>
   </si>
@@ -1771,9 +1771,6 @@
     <t>gas-out</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>#######</t>
-  </si>
 </sst>
 </file>
 
@@ -2107,7 +2104,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2289,9 +2286,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5546,16 +5540,18 @@
   </sheetPr>
   <dimension ref="A1:AE163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Y153" sqref="Y153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="67"/>
+    <col min="1" max="1" width="10.83203125" style="66"/>
     <col min="2" max="31" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="67">
+      <c r="A1" s="66">
         <v>2020</v>
       </c>
       <c r="B1" s="56" t="s">
@@ -5650,7 +5646,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="19" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="57">
@@ -5745,7 +5741,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="19" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="57">
@@ -5840,7 +5836,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="19" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="57">
@@ -5935,7 +5931,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="19" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="57">
@@ -6030,7 +6026,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="19" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="57">
@@ -6125,7 +6121,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="19" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="57">
@@ -6220,7 +6216,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="19" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="57">
@@ -6315,7 +6311,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="19" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="57">
@@ -6410,7 +6406,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="19" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="57">
@@ -6505,7 +6501,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="19" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="57">
@@ -6600,7 +6596,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="19" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="57">
@@ -6695,7 +6691,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="19" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="57">
@@ -6790,7 +6786,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="19" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="57">
@@ -6885,7 +6881,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="19" customHeight="1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="57">
@@ -6980,7 +6976,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="19" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="57">
@@ -7075,7 +7071,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" customHeight="1">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="57">
@@ -7170,7 +7166,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="19" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="57">
@@ -7265,7 +7261,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="19" customHeight="1">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="57">
@@ -7360,7 +7356,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="57">
@@ -7455,7 +7451,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="19" customHeight="1">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="57">
@@ -7550,7 +7546,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="19" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="57">
@@ -7645,7 +7641,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" customHeight="1">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="57">
@@ -7740,7 +7736,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="19" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="57">
@@ -7835,7 +7831,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="19" customHeight="1">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="66" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="57">
@@ -7930,7 +7926,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="19" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="57">
@@ -8025,7 +8021,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="19" customHeight="1">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="57">
@@ -8120,7 +8116,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="19" customHeight="1">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="66" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="57">
@@ -8215,7 +8211,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="19" customHeight="1">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="57">
@@ -8310,7 +8306,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="19" customHeight="1">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="57">
@@ -8405,7 +8401,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="19" customHeight="1">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="57">
@@ -8500,7 +8496,7 @@
       </c>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="67">
+      <c r="A34" s="66">
         <v>2030</v>
       </c>
       <c r="B34" s="56" t="s">
@@ -8595,7 +8591,7 @@
       </c>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="57">
@@ -8690,7 +8686,7 @@
       </c>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="57">
@@ -8785,7 +8781,7 @@
       </c>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="57">
@@ -8880,7 +8876,7 @@
       </c>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="57">
@@ -8893,37 +8889,37 @@
         <v>0</v>
       </c>
       <c r="E38" s="57">
-        <v>53492.95</v>
+        <v>0</v>
       </c>
       <c r="F38" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G38" s="57">
         <v>0</v>
       </c>
       <c r="H38" s="57">
-        <v>53492.95</v>
+        <v>0</v>
       </c>
       <c r="I38" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J38" s="57">
         <v>0</v>
       </c>
       <c r="K38" s="57">
-        <v>53492.95</v>
+        <v>0</v>
       </c>
       <c r="L38" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M38" s="57">
         <v>0</v>
       </c>
       <c r="N38" s="57">
-        <v>53492.95</v>
+        <v>0</v>
       </c>
       <c r="O38" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P38" s="57">
         <v>0</v>
@@ -8975,7 +8971,7 @@
       </c>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="57">
@@ -8988,40 +8984,40 @@
         <v>21.014000000000003</v>
       </c>
       <c r="E39" s="57">
-        <v>2989224.62</v>
+        <v>0</v>
       </c>
       <c r="F39" s="57">
-        <v>298970.17</v>
+        <v>0</v>
       </c>
       <c r="G39" s="57">
-        <v>21.014000000000003</v>
+        <v>0</v>
       </c>
       <c r="H39" s="57">
-        <v>2989224.62</v>
+        <v>0</v>
       </c>
       <c r="I39" s="57">
-        <v>298970.17</v>
+        <v>0</v>
       </c>
       <c r="J39" s="57">
-        <v>21.014000000000003</v>
+        <v>0</v>
       </c>
       <c r="K39" s="57">
-        <v>2989224.62</v>
+        <v>0</v>
       </c>
       <c r="L39" s="57">
-        <v>298970.17</v>
+        <v>0</v>
       </c>
       <c r="M39" s="57">
-        <v>21.014000000000003</v>
+        <v>0</v>
       </c>
       <c r="N39" s="57">
-        <v>2989224.62</v>
+        <v>0</v>
       </c>
       <c r="O39" s="57">
-        <v>298970.17</v>
+        <v>0</v>
       </c>
       <c r="P39" s="57">
-        <v>21.014000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="57">
         <v>2989224.62</v>
@@ -9070,7 +9066,7 @@
       </c>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="57">
@@ -9083,40 +9079,40 @@
         <v>1490.664</v>
       </c>
       <c r="E40" s="57">
-        <v>19058.3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="57">
-        <v>483.22</v>
+        <v>0</v>
       </c>
       <c r="G40" s="57">
-        <v>1490.664</v>
+        <v>0</v>
       </c>
       <c r="H40" s="57">
-        <v>19058.3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="57">
-        <v>483.22</v>
+        <v>0</v>
       </c>
       <c r="J40" s="57">
-        <v>1490.664</v>
+        <v>0</v>
       </c>
       <c r="K40" s="57">
-        <v>19058.3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="57">
-        <v>483.22</v>
+        <v>0</v>
       </c>
       <c r="M40" s="57">
-        <v>1490.664</v>
+        <v>0</v>
       </c>
       <c r="N40" s="57">
-        <v>19058.3</v>
+        <v>0</v>
       </c>
       <c r="O40" s="57">
-        <v>483.22</v>
+        <v>0</v>
       </c>
       <c r="P40" s="57">
-        <v>1490.664</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="57">
         <v>19058.3</v>
@@ -9165,7 +9161,7 @@
       </c>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="57">
@@ -9178,40 +9174,40 @@
         <v>3.3250000000000002</v>
       </c>
       <c r="E41" s="57">
-        <v>36903.230000000003</v>
+        <v>0</v>
       </c>
       <c r="F41" s="57">
-        <v>5284.2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="57">
-        <v>3.3250000000000002</v>
+        <v>0</v>
       </c>
       <c r="H41" s="57">
-        <v>36903.230000000003</v>
+        <v>0</v>
       </c>
       <c r="I41" s="57">
-        <v>5284.2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="57">
-        <v>3.3250000000000002</v>
+        <v>0</v>
       </c>
       <c r="K41" s="57">
-        <v>36903.230000000003</v>
+        <v>0</v>
       </c>
       <c r="L41" s="57">
-        <v>5284.2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="57">
-        <v>3.3250000000000002</v>
+        <v>0</v>
       </c>
       <c r="N41" s="57">
-        <v>36903.230000000003</v>
+        <v>0</v>
       </c>
       <c r="O41" s="57">
-        <v>5284.2</v>
+        <v>0</v>
       </c>
       <c r="P41" s="57">
-        <v>3.3250000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="57">
         <v>36903.230000000003</v>
@@ -9260,7 +9256,7 @@
       </c>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="57">
@@ -9273,40 +9269,40 @@
         <v>42.161000000000001</v>
       </c>
       <c r="E42" s="57">
-        <v>3968352.74</v>
+        <v>0</v>
       </c>
       <c r="F42" s="57">
-        <v>16538.439999999999</v>
+        <v>0</v>
       </c>
       <c r="G42" s="57">
-        <v>42.161000000000001</v>
+        <v>0</v>
       </c>
       <c r="H42" s="57">
-        <v>3968352.74</v>
+        <v>0</v>
       </c>
       <c r="I42" s="57">
-        <v>16538.439999999999</v>
+        <v>0</v>
       </c>
       <c r="J42" s="57">
-        <v>42.161000000000001</v>
+        <v>0</v>
       </c>
       <c r="K42" s="57">
-        <v>3968352.74</v>
+        <v>0</v>
       </c>
       <c r="L42" s="57">
-        <v>16538.439999999999</v>
+        <v>0</v>
       </c>
       <c r="M42" s="57">
-        <v>42.161000000000001</v>
+        <v>0</v>
       </c>
       <c r="N42" s="57">
-        <v>3968352.74</v>
+        <v>0</v>
       </c>
       <c r="O42" s="57">
-        <v>16538.439999999999</v>
+        <v>0</v>
       </c>
       <c r="P42" s="57">
-        <v>42.161000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="57">
         <v>3968352.74</v>
@@ -9355,7 +9351,7 @@
       </c>
     </row>
     <row r="43" spans="1:31">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="57">
@@ -9368,40 +9364,40 @@
         <v>13.699000000000002</v>
       </c>
       <c r="E43" s="57">
-        <v>20.92</v>
+        <v>0</v>
       </c>
       <c r="F43" s="57">
-        <v>1091.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="G43" s="57">
-        <v>13.699000000000002</v>
+        <v>0</v>
       </c>
       <c r="H43" s="57">
-        <v>20.92</v>
+        <v>0</v>
       </c>
       <c r="I43" s="57">
-        <v>1091.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="J43" s="57">
-        <v>13.699000000000002</v>
+        <v>0</v>
       </c>
       <c r="K43" s="57">
-        <v>20.92</v>
+        <v>0</v>
       </c>
       <c r="L43" s="57">
-        <v>1091.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="M43" s="57">
-        <v>13.699000000000002</v>
+        <v>0</v>
       </c>
       <c r="N43" s="57">
-        <v>20.92</v>
+        <v>0</v>
       </c>
       <c r="O43" s="57">
-        <v>1091.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="P43" s="57">
-        <v>13.699000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="57">
         <v>20.92</v>
@@ -9450,7 +9446,7 @@
       </c>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="57">
@@ -9463,40 +9459,40 @@
         <v>77.671999999999997</v>
       </c>
       <c r="E44" s="57">
-        <v>1258119.9099999999</v>
+        <v>0</v>
       </c>
       <c r="F44" s="57">
-        <v>560093.64</v>
+        <v>0</v>
       </c>
       <c r="G44" s="57">
-        <v>77.671999999999997</v>
+        <v>0</v>
       </c>
       <c r="H44" s="57">
-        <v>1258119.9099999999</v>
+        <v>0</v>
       </c>
       <c r="I44" s="57">
-        <v>560093.64</v>
+        <v>0</v>
       </c>
       <c r="J44" s="57">
-        <v>77.671999999999997</v>
+        <v>0</v>
       </c>
       <c r="K44" s="57">
-        <v>1258119.9099999999</v>
+        <v>0</v>
       </c>
       <c r="L44" s="57">
-        <v>560093.64</v>
+        <v>0</v>
       </c>
       <c r="M44" s="57">
-        <v>77.671999999999997</v>
+        <v>0</v>
       </c>
       <c r="N44" s="57">
-        <v>1258119.9099999999</v>
+        <v>0</v>
       </c>
       <c r="O44" s="57">
-        <v>560093.64</v>
+        <v>0</v>
       </c>
       <c r="P44" s="57">
-        <v>77.671999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="57">
         <v>1258119.9099999999</v>
@@ -9545,7 +9541,7 @@
       </c>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="57">
@@ -9558,40 +9554,40 @@
         <v>607.41100000000006</v>
       </c>
       <c r="E45" s="57">
-        <v>368467.48</v>
+        <v>0</v>
       </c>
       <c r="F45" s="57">
-        <v>2267964.62</v>
+        <v>0</v>
       </c>
       <c r="G45" s="57">
-        <v>607.41100000000006</v>
+        <v>0</v>
       </c>
       <c r="H45" s="57">
-        <v>368467.48</v>
+        <v>0</v>
       </c>
       <c r="I45" s="57">
-        <v>2267964.62</v>
+        <v>0</v>
       </c>
       <c r="J45" s="57">
-        <v>607.41100000000006</v>
+        <v>0</v>
       </c>
       <c r="K45" s="57">
-        <v>368467.48</v>
+        <v>0</v>
       </c>
       <c r="L45" s="57">
-        <v>2267964.62</v>
+        <v>0</v>
       </c>
       <c r="M45" s="57">
-        <v>607.41100000000006</v>
+        <v>0</v>
       </c>
       <c r="N45" s="57">
-        <v>368467.48</v>
+        <v>0</v>
       </c>
       <c r="O45" s="57">
-        <v>2267964.62</v>
+        <v>0</v>
       </c>
       <c r="P45" s="57">
-        <v>607.41100000000006</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="57">
         <v>368467.48</v>
@@ -9640,7 +9636,7 @@
       </c>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="57">
@@ -9653,40 +9649,40 @@
         <v>39.368000000000002</v>
       </c>
       <c r="E46" s="57">
-        <v>1924051.71</v>
+        <v>0</v>
       </c>
       <c r="F46" s="57">
-        <v>154644.57999999999</v>
+        <v>0</v>
       </c>
       <c r="G46" s="57">
-        <v>39.368000000000002</v>
+        <v>0</v>
       </c>
       <c r="H46" s="57">
-        <v>1924051.71</v>
+        <v>0</v>
       </c>
       <c r="I46" s="57">
-        <v>154644.57999999999</v>
+        <v>0</v>
       </c>
       <c r="J46" s="57">
-        <v>39.368000000000002</v>
+        <v>0</v>
       </c>
       <c r="K46" s="57">
-        <v>1924051.71</v>
+        <v>0</v>
       </c>
       <c r="L46" s="57">
-        <v>154644.57999999999</v>
+        <v>0</v>
       </c>
       <c r="M46" s="57">
-        <v>39.368000000000002</v>
+        <v>0</v>
       </c>
       <c r="N46" s="57">
-        <v>1924051.71</v>
+        <v>0</v>
       </c>
       <c r="O46" s="57">
-        <v>154644.57999999999</v>
+        <v>0</v>
       </c>
       <c r="P46" s="57">
-        <v>39.368000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="57">
         <v>1924051.71</v>
@@ -9735,7 +9731,7 @@
       </c>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="57">
@@ -9748,40 +9744,40 @@
         <v>65.037000000000006</v>
       </c>
       <c r="E47" s="57">
-        <v>4267.72</v>
+        <v>0</v>
       </c>
       <c r="F47" s="57">
-        <v>7295</v>
+        <v>0</v>
       </c>
       <c r="G47" s="57">
-        <v>65.037000000000006</v>
+        <v>0</v>
       </c>
       <c r="H47" s="57">
-        <v>4267.72</v>
+        <v>0</v>
       </c>
       <c r="I47" s="57">
-        <v>7295</v>
+        <v>0</v>
       </c>
       <c r="J47" s="57">
-        <v>65.037000000000006</v>
+        <v>0</v>
       </c>
       <c r="K47" s="57">
-        <v>4267.72</v>
+        <v>0</v>
       </c>
       <c r="L47" s="57">
-        <v>7295</v>
+        <v>0</v>
       </c>
       <c r="M47" s="57">
-        <v>65.037000000000006</v>
+        <v>0</v>
       </c>
       <c r="N47" s="57">
-        <v>4267.72</v>
+        <v>0</v>
       </c>
       <c r="O47" s="57">
-        <v>7295</v>
+        <v>0</v>
       </c>
       <c r="P47" s="57">
-        <v>65.037000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="57">
         <v>4267.72</v>
@@ -9830,7 +9826,7 @@
       </c>
     </row>
     <row r="48" spans="1:31">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="57">
@@ -9843,37 +9839,37 @@
         <v>0</v>
       </c>
       <c r="E48" s="57">
-        <v>94873.11</v>
+        <v>0</v>
       </c>
       <c r="F48" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G48" s="57">
         <v>0</v>
       </c>
       <c r="H48" s="57">
-        <v>94873.11</v>
+        <v>0</v>
       </c>
       <c r="I48" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J48" s="57">
         <v>0</v>
       </c>
       <c r="K48" s="57">
-        <v>94873.11</v>
+        <v>0</v>
       </c>
       <c r="L48" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M48" s="57">
         <v>0</v>
       </c>
       <c r="N48" s="57">
-        <v>94873.11</v>
+        <v>0</v>
       </c>
       <c r="O48" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P48" s="57">
         <v>0</v>
@@ -9925,7 +9921,7 @@
       </c>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="57">
@@ -9938,40 +9934,40 @@
         <v>266.13300000000004</v>
       </c>
       <c r="E49" s="57">
-        <v>62823.360000000001</v>
+        <v>0</v>
       </c>
       <c r="F49" s="57">
-        <v>1061920.8400000001</v>
+        <v>0</v>
       </c>
       <c r="G49" s="57">
-        <v>266.13300000000004</v>
+        <v>0</v>
       </c>
       <c r="H49" s="57">
-        <v>62823.360000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" s="57">
-        <v>1061920.8400000001</v>
+        <v>0</v>
       </c>
       <c r="J49" s="57">
-        <v>266.13300000000004</v>
+        <v>0</v>
       </c>
       <c r="K49" s="57">
-        <v>62823.360000000001</v>
+        <v>0</v>
       </c>
       <c r="L49" s="57">
-        <v>1061920.8400000001</v>
+        <v>0</v>
       </c>
       <c r="M49" s="57">
-        <v>266.13300000000004</v>
+        <v>0</v>
       </c>
       <c r="N49" s="57">
-        <v>62823.360000000001</v>
+        <v>0</v>
       </c>
       <c r="O49" s="57">
-        <v>1061920.8400000001</v>
+        <v>0</v>
       </c>
       <c r="P49" s="57">
-        <v>266.13300000000004</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="57">
         <v>62823.360000000001</v>
@@ -10020,7 +10016,7 @@
       </c>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="57">
@@ -10033,40 +10029,40 @@
         <v>162.12700000000001</v>
       </c>
       <c r="E50" s="57">
-        <v>105626.09</v>
+        <v>0</v>
       </c>
       <c r="F50" s="57">
-        <v>36880.26</v>
+        <v>0</v>
       </c>
       <c r="G50" s="57">
-        <v>162.12700000000001</v>
+        <v>0</v>
       </c>
       <c r="H50" s="57">
-        <v>105626.09</v>
+        <v>0</v>
       </c>
       <c r="I50" s="57">
-        <v>36880.26</v>
+        <v>0</v>
       </c>
       <c r="J50" s="57">
-        <v>162.12700000000001</v>
+        <v>0</v>
       </c>
       <c r="K50" s="57">
-        <v>105626.09</v>
+        <v>0</v>
       </c>
       <c r="L50" s="57">
-        <v>36880.26</v>
+        <v>0</v>
       </c>
       <c r="M50" s="57">
-        <v>162.12700000000001</v>
+        <v>0</v>
       </c>
       <c r="N50" s="57">
-        <v>105626.09</v>
+        <v>0</v>
       </c>
       <c r="O50" s="57">
-        <v>36880.26</v>
+        <v>0</v>
       </c>
       <c r="P50" s="57">
-        <v>162.12700000000001</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="57">
         <v>105626.09</v>
@@ -10115,7 +10111,7 @@
       </c>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="57">
@@ -10128,40 +10124,40 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="E51" s="57">
-        <v>85438.1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G51" s="57">
-        <v>0.39900000000000002</v>
+        <v>0</v>
       </c>
       <c r="H51" s="57">
-        <v>85438.1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J51" s="57">
-        <v>0.39900000000000002</v>
+        <v>0</v>
       </c>
       <c r="K51" s="57">
-        <v>85438.1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M51" s="57">
-        <v>0.39900000000000002</v>
+        <v>0</v>
       </c>
       <c r="N51" s="57">
-        <v>85438.1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="57">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P51" s="57">
-        <v>0.39900000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="57">
         <v>85438.1</v>
@@ -10210,7 +10206,7 @@
       </c>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="57">
@@ -10223,40 +10219,40 @@
         <v>82.460000000000008</v>
       </c>
       <c r="E52" s="57">
-        <v>123994.03</v>
+        <v>0</v>
       </c>
       <c r="F52" s="57">
-        <v>326451.11</v>
+        <v>0</v>
       </c>
       <c r="G52" s="57">
-        <v>82.460000000000008</v>
+        <v>0</v>
       </c>
       <c r="H52" s="57">
-        <v>123994.03</v>
+        <v>0</v>
       </c>
       <c r="I52" s="57">
-        <v>326451.11</v>
+        <v>0</v>
       </c>
       <c r="J52" s="57">
-        <v>82.460000000000008</v>
+        <v>0</v>
       </c>
       <c r="K52" s="57">
-        <v>123994.03</v>
+        <v>0</v>
       </c>
       <c r="L52" s="57">
-        <v>326451.11</v>
+        <v>0</v>
       </c>
       <c r="M52" s="57">
-        <v>82.460000000000008</v>
+        <v>0</v>
       </c>
       <c r="N52" s="57">
-        <v>123994.03</v>
+        <v>0</v>
       </c>
       <c r="O52" s="57">
-        <v>326451.11</v>
+        <v>0</v>
       </c>
       <c r="P52" s="57">
-        <v>82.460000000000008</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="57">
         <v>123994.03</v>
@@ -10305,7 +10301,7 @@
       </c>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="57">
@@ -10318,40 +10314,40 @@
         <v>339.81500000000005</v>
       </c>
       <c r="E53" s="57">
-        <v>25628081.809999999</v>
+        <v>0</v>
       </c>
       <c r="F53" s="57">
-        <v>11144261.09</v>
+        <v>0</v>
       </c>
       <c r="G53" s="57">
-        <v>339.81500000000005</v>
+        <v>0</v>
       </c>
       <c r="H53" s="57">
-        <v>25628081.809999999</v>
+        <v>0</v>
       </c>
       <c r="I53" s="57">
-        <v>11144261.09</v>
+        <v>0</v>
       </c>
       <c r="J53" s="57">
-        <v>339.81500000000005</v>
+        <v>0</v>
       </c>
       <c r="K53" s="57">
-        <v>25628081.809999999</v>
+        <v>0</v>
       </c>
       <c r="L53" s="57">
-        <v>11144261.09</v>
+        <v>0</v>
       </c>
       <c r="M53" s="57">
-        <v>339.81500000000005</v>
+        <v>0</v>
       </c>
       <c r="N53" s="57">
-        <v>25628081.809999999</v>
+        <v>0</v>
       </c>
       <c r="O53" s="57">
-        <v>11144261.09</v>
+        <v>0</v>
       </c>
       <c r="P53" s="57">
-        <v>339.81500000000005</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="57">
         <v>25628081.809999999</v>
@@ -10400,7 +10396,7 @@
       </c>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="57">
@@ -10495,7 +10491,7 @@
       </c>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="57">
@@ -10590,7 +10586,7 @@
       </c>
     </row>
     <row r="56" spans="1:31">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="57">
@@ -10685,7 +10681,7 @@
       </c>
     </row>
     <row r="57" spans="1:31">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="57">
@@ -10780,7 +10776,7 @@
       </c>
     </row>
     <row r="58" spans="1:31">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="66" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="57">
@@ -10875,7 +10871,7 @@
       </c>
     </row>
     <row r="59" spans="1:31">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="57">
@@ -10970,7 +10966,7 @@
       </c>
     </row>
     <row r="60" spans="1:31">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="57">
@@ -11065,7 +11061,7 @@
       </c>
     </row>
     <row r="61" spans="1:31">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="66" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="57">
@@ -11160,7 +11156,7 @@
       </c>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="57">
@@ -11255,7 +11251,7 @@
       </c>
     </row>
     <row r="63" spans="1:31">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="57">
@@ -11350,7 +11346,7 @@
       </c>
     </row>
     <row r="64" spans="1:31">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="57">
@@ -11445,7 +11441,7 @@
       </c>
     </row>
     <row r="67" spans="1:31">
-      <c r="A67" s="67">
+      <c r="A67" s="66">
         <v>2040</v>
       </c>
       <c r="B67" s="56" t="s">
@@ -11540,7 +11536,7 @@
       </c>
     </row>
     <row r="68" spans="1:31">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="66" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="57">
@@ -11635,7 +11631,7 @@
       </c>
     </row>
     <row r="69" spans="1:31">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="57">
@@ -11730,7 +11726,7 @@
       </c>
     </row>
     <row r="70" spans="1:31">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="57">
@@ -11825,7 +11821,7 @@
       </c>
     </row>
     <row r="71" spans="1:31">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B71" s="57">
@@ -11920,7 +11916,7 @@
       </c>
     </row>
     <row r="72" spans="1:31">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="57">
@@ -11933,43 +11929,43 @@
         <v>21.014000000000003</v>
       </c>
       <c r="E72" s="57">
-        <v>2989224.62</v>
+        <v>2323</v>
       </c>
       <c r="F72" s="57">
-        <v>298970.17</v>
+        <v>2323</v>
       </c>
       <c r="G72" s="57">
-        <v>21.014000000000003</v>
+        <v>2323</v>
       </c>
       <c r="H72" s="57">
-        <v>2989224.62</v>
+        <v>2323</v>
       </c>
       <c r="I72" s="57">
-        <v>298970.17</v>
+        <v>2323</v>
       </c>
       <c r="J72" s="57">
-        <v>21.014000000000003</v>
+        <v>2323</v>
       </c>
       <c r="K72" s="57">
-        <v>2989224.62</v>
+        <v>2323</v>
       </c>
       <c r="L72" s="57">
-        <v>298970.17</v>
+        <v>2323</v>
       </c>
       <c r="M72" s="57">
-        <v>21.014000000000003</v>
+        <v>2323</v>
       </c>
       <c r="N72" s="57">
-        <v>2989224.62</v>
+        <v>2323</v>
       </c>
       <c r="O72" s="57">
-        <v>298970.17</v>
+        <v>2323</v>
       </c>
       <c r="P72" s="57">
-        <v>21.014000000000003</v>
+        <v>2323</v>
       </c>
       <c r="Q72" s="57">
-        <v>2989224.62</v>
+        <v>2323</v>
       </c>
       <c r="R72" s="57">
         <v>298970.17</v>
@@ -12015,7 +12011,7 @@
       </c>
     </row>
     <row r="73" spans="1:31">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="57">
@@ -12028,43 +12024,43 @@
         <v>1490.664</v>
       </c>
       <c r="E73" s="57">
-        <v>19058.3</v>
+        <v>2323</v>
       </c>
       <c r="F73" s="57">
-        <v>483.22</v>
+        <v>2323</v>
       </c>
       <c r="G73" s="57">
-        <v>1490.664</v>
+        <v>2323</v>
       </c>
       <c r="H73" s="57">
-        <v>19058.3</v>
+        <v>2323</v>
       </c>
       <c r="I73" s="57">
-        <v>483.22</v>
+        <v>2323</v>
       </c>
       <c r="J73" s="57">
-        <v>1490.664</v>
+        <v>2323</v>
       </c>
       <c r="K73" s="57">
-        <v>19058.3</v>
+        <v>2323</v>
       </c>
       <c r="L73" s="57">
-        <v>483.22</v>
+        <v>2323</v>
       </c>
       <c r="M73" s="57">
-        <v>1490.664</v>
+        <v>2323</v>
       </c>
       <c r="N73" s="57">
-        <v>19058.3</v>
+        <v>2323</v>
       </c>
       <c r="O73" s="57">
-        <v>483.22</v>
+        <v>2323</v>
       </c>
       <c r="P73" s="57">
-        <v>1490.664</v>
+        <v>2323</v>
       </c>
       <c r="Q73" s="57">
-        <v>19058.3</v>
+        <v>2323</v>
       </c>
       <c r="R73" s="57">
         <v>483.22</v>
@@ -12110,7 +12106,7 @@
       </c>
     </row>
     <row r="74" spans="1:31">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="57">
@@ -12123,43 +12119,43 @@
         <v>3.3250000000000002</v>
       </c>
       <c r="E74" s="57">
-        <v>36903.230000000003</v>
+        <v>2323</v>
       </c>
       <c r="F74" s="57">
-        <v>5284.2</v>
+        <v>2323</v>
       </c>
       <c r="G74" s="57">
-        <v>3.3250000000000002</v>
+        <v>2323</v>
       </c>
       <c r="H74" s="57">
-        <v>36903.230000000003</v>
+        <v>2323</v>
       </c>
       <c r="I74" s="57">
-        <v>5284.2</v>
+        <v>2323</v>
       </c>
       <c r="J74" s="57">
-        <v>3.3250000000000002</v>
+        <v>2323</v>
       </c>
       <c r="K74" s="57">
-        <v>36903.230000000003</v>
+        <v>2323</v>
       </c>
       <c r="L74" s="57">
-        <v>5284.2</v>
+        <v>2323</v>
       </c>
       <c r="M74" s="57">
-        <v>3.3250000000000002</v>
+        <v>2323</v>
       </c>
       <c r="N74" s="57">
-        <v>36903.230000000003</v>
+        <v>2323</v>
       </c>
       <c r="O74" s="57">
-        <v>5284.2</v>
+        <v>2323</v>
       </c>
       <c r="P74" s="57">
-        <v>3.3250000000000002</v>
+        <v>2323</v>
       </c>
       <c r="Q74" s="57">
-        <v>36903.230000000003</v>
+        <v>2323</v>
       </c>
       <c r="R74" s="57">
         <v>5284.2</v>
@@ -12205,7 +12201,7 @@
       </c>
     </row>
     <row r="75" spans="1:31">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="57">
@@ -12218,43 +12214,43 @@
         <v>42.161000000000001</v>
       </c>
       <c r="E75" s="57">
-        <v>3968352.74</v>
+        <v>2323</v>
       </c>
       <c r="F75" s="57">
-        <v>16538.439999999999</v>
+        <v>2323</v>
       </c>
       <c r="G75" s="57">
-        <v>42.161000000000001</v>
+        <v>2323</v>
       </c>
       <c r="H75" s="57">
-        <v>3968352.74</v>
+        <v>2323</v>
       </c>
       <c r="I75" s="57">
-        <v>16538.439999999999</v>
+        <v>2323</v>
       </c>
       <c r="J75" s="57">
-        <v>42.161000000000001</v>
+        <v>2323</v>
       </c>
       <c r="K75" s="57">
-        <v>3968352.74</v>
+        <v>2323</v>
       </c>
       <c r="L75" s="57">
-        <v>16538.439999999999</v>
+        <v>2323</v>
       </c>
       <c r="M75" s="57">
-        <v>42.161000000000001</v>
+        <v>2323</v>
       </c>
       <c r="N75" s="57">
-        <v>3968352.74</v>
+        <v>2323</v>
       </c>
       <c r="O75" s="57">
-        <v>16538.439999999999</v>
+        <v>2323</v>
       </c>
       <c r="P75" s="57">
-        <v>42.161000000000001</v>
+        <v>2323</v>
       </c>
       <c r="Q75" s="57">
-        <v>3968352.74</v>
+        <v>2323</v>
       </c>
       <c r="R75" s="57">
         <v>16538.439999999999</v>
@@ -12300,7 +12296,7 @@
       </c>
     </row>
     <row r="76" spans="1:31">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="57">
@@ -12313,43 +12309,43 @@
         <v>13.699000000000002</v>
       </c>
       <c r="E76" s="57">
-        <v>20.92</v>
+        <v>2323</v>
       </c>
       <c r="F76" s="57">
-        <v>1091.1300000000001</v>
+        <v>2323</v>
       </c>
       <c r="G76" s="57">
-        <v>13.699000000000002</v>
+        <v>2323</v>
       </c>
       <c r="H76" s="57">
-        <v>20.92</v>
+        <v>2323</v>
       </c>
       <c r="I76" s="57">
-        <v>1091.1300000000001</v>
+        <v>2323</v>
       </c>
       <c r="J76" s="57">
-        <v>13.699000000000002</v>
+        <v>2323</v>
       </c>
       <c r="K76" s="57">
-        <v>20.92</v>
+        <v>2323</v>
       </c>
       <c r="L76" s="57">
-        <v>1091.1300000000001</v>
+        <v>2323</v>
       </c>
       <c r="M76" s="57">
-        <v>13.699000000000002</v>
+        <v>2323</v>
       </c>
       <c r="N76" s="57">
-        <v>20.92</v>
+        <v>2323</v>
       </c>
       <c r="O76" s="57">
-        <v>1091.1300000000001</v>
+        <v>2323</v>
       </c>
       <c r="P76" s="57">
-        <v>13.699000000000002</v>
+        <v>2323</v>
       </c>
       <c r="Q76" s="57">
-        <v>20.92</v>
+        <v>2323</v>
       </c>
       <c r="R76" s="57">
         <v>1091.1300000000001</v>
@@ -12395,7 +12391,7 @@
       </c>
     </row>
     <row r="77" spans="1:31">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="57">
@@ -12490,7 +12486,7 @@
       </c>
     </row>
     <row r="78" spans="1:31">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B78" s="57">
@@ -12585,7 +12581,7 @@
       </c>
     </row>
     <row r="79" spans="1:31">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B79" s="57">
@@ -12680,7 +12676,7 @@
       </c>
     </row>
     <row r="80" spans="1:31">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B80" s="57">
@@ -12775,7 +12771,7 @@
       </c>
     </row>
     <row r="81" spans="1:31">
-      <c r="A81" s="67" t="s">
+      <c r="A81" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B81" s="57">
@@ -12870,7 +12866,7 @@
       </c>
     </row>
     <row r="82" spans="1:31">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="57">
@@ -12965,7 +12961,7 @@
       </c>
     </row>
     <row r="83" spans="1:31">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B83" s="57">
@@ -13060,7 +13056,7 @@
       </c>
     </row>
     <row r="84" spans="1:31">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B84" s="57">
@@ -13155,7 +13151,7 @@
       </c>
     </row>
     <row r="85" spans="1:31">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="57">
@@ -13250,7 +13246,7 @@
       </c>
     </row>
     <row r="86" spans="1:31">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B86" s="57">
@@ -13345,7 +13341,7 @@
       </c>
     </row>
     <row r="87" spans="1:31">
-      <c r="A87" s="67" t="s">
+      <c r="A87" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="57">
@@ -13440,7 +13436,7 @@
       </c>
     </row>
     <row r="88" spans="1:31">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B88" s="57">
@@ -13535,7 +13531,7 @@
       </c>
     </row>
     <row r="89" spans="1:31">
-      <c r="A89" s="67" t="s">
+      <c r="A89" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B89" s="57">
@@ -13630,7 +13626,7 @@
       </c>
     </row>
     <row r="90" spans="1:31">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="57">
@@ -13725,7 +13721,7 @@
       </c>
     </row>
     <row r="91" spans="1:31">
-      <c r="A91" s="67" t="s">
+      <c r="A91" s="66" t="s">
         <v>35</v>
       </c>
       <c r="B91" s="57">
@@ -13820,7 +13816,7 @@
       </c>
     </row>
     <row r="92" spans="1:31">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B92" s="57">
@@ -13915,7 +13911,7 @@
       </c>
     </row>
     <row r="93" spans="1:31">
-      <c r="A93" s="67" t="s">
+      <c r="A93" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="57">
@@ -14010,7 +14006,7 @@
       </c>
     </row>
     <row r="94" spans="1:31">
-      <c r="A94" s="67" t="s">
+      <c r="A94" s="66" t="s">
         <v>38</v>
       </c>
       <c r="B94" s="57">
@@ -14105,7 +14101,7 @@
       </c>
     </row>
     <row r="95" spans="1:31">
-      <c r="A95" s="67" t="s">
+      <c r="A95" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B95" s="57">
@@ -14200,7 +14196,7 @@
       </c>
     </row>
     <row r="96" spans="1:31">
-      <c r="A96" s="67" t="s">
+      <c r="A96" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B96" s="57">
@@ -14295,7 +14291,7 @@
       </c>
     </row>
     <row r="97" spans="1:31">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B97" s="57">
@@ -14390,7 +14386,7 @@
       </c>
     </row>
     <row r="100" spans="1:31">
-      <c r="A100" s="67">
+      <c r="A100" s="66">
         <v>2050</v>
       </c>
       <c r="B100" s="56" t="s">
@@ -14485,7 +14481,7 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="66" t="s">
         <v>129</v>
       </c>
       <c r="B101" s="57">
@@ -14580,7 +14576,7 @@
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="67" t="s">
+      <c r="A102" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B102" s="57">
@@ -14675,7 +14671,7 @@
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="67" t="s">
+      <c r="A103" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B103" s="57">
@@ -14770,7 +14766,7 @@
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="67" t="s">
+      <c r="A104" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="57">
@@ -14865,7 +14861,7 @@
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="67" t="s">
+      <c r="A105" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B105" s="57">
@@ -14960,7 +14956,7 @@
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B106" s="57">
@@ -15055,7 +15051,7 @@
       </c>
     </row>
     <row r="107" spans="1:31">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B107" s="57">
@@ -15150,7 +15146,7 @@
       </c>
     </row>
     <row r="108" spans="1:31">
-      <c r="A108" s="67" t="s">
+      <c r="A108" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B108" s="57">
@@ -15245,7 +15241,7 @@
       </c>
     </row>
     <row r="109" spans="1:31">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B109" s="57">
@@ -15340,7 +15336,7 @@
       </c>
     </row>
     <row r="110" spans="1:31">
-      <c r="A110" s="67" t="s">
+      <c r="A110" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B110" s="57">
@@ -15435,7 +15431,7 @@
       </c>
     </row>
     <row r="111" spans="1:31">
-      <c r="A111" s="67" t="s">
+      <c r="A111" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B111" s="57">
@@ -15530,7 +15526,7 @@
       </c>
     </row>
     <row r="112" spans="1:31">
-      <c r="A112" s="67" t="s">
+      <c r="A112" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B112" s="57">
@@ -15625,7 +15621,7 @@
       </c>
     </row>
     <row r="113" spans="1:31">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B113" s="57">
@@ -15720,7 +15716,7 @@
       </c>
     </row>
     <row r="114" spans="1:31">
-      <c r="A114" s="67" t="s">
+      <c r="A114" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B114" s="57">
@@ -15815,7 +15811,7 @@
       </c>
     </row>
     <row r="115" spans="1:31">
-      <c r="A115" s="67" t="s">
+      <c r="A115" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B115" s="57">
@@ -15910,7 +15906,7 @@
       </c>
     </row>
     <row r="116" spans="1:31">
-      <c r="A116" s="67" t="s">
+      <c r="A116" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B116" s="57">
@@ -16005,7 +16001,7 @@
       </c>
     </row>
     <row r="117" spans="1:31">
-      <c r="A117" s="67" t="s">
+      <c r="A117" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B117" s="57">
@@ -16100,7 +16096,7 @@
       </c>
     </row>
     <row r="118" spans="1:31">
-      <c r="A118" s="67" t="s">
+      <c r="A118" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B118" s="57">
@@ -16195,7 +16191,7 @@
       </c>
     </row>
     <row r="119" spans="1:31">
-      <c r="A119" s="67" t="s">
+      <c r="A119" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="57">
@@ -16290,7 +16286,7 @@
       </c>
     </row>
     <row r="120" spans="1:31">
-      <c r="A120" s="67" t="s">
+      <c r="A120" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B120" s="57">
@@ -16385,7 +16381,7 @@
       </c>
     </row>
     <row r="121" spans="1:31">
-      <c r="A121" s="67" t="s">
+      <c r="A121" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B121" s="57">
@@ -16480,7 +16476,7 @@
       </c>
     </row>
     <row r="122" spans="1:31">
-      <c r="A122" s="67" t="s">
+      <c r="A122" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B122" s="57">
@@ -16575,7 +16571,7 @@
       </c>
     </row>
     <row r="123" spans="1:31">
-      <c r="A123" s="67" t="s">
+      <c r="A123" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B123" s="57">
@@ -16670,7 +16666,7 @@
       </c>
     </row>
     <row r="124" spans="1:31">
-      <c r="A124" s="67" t="s">
+      <c r="A124" s="66" t="s">
         <v>35</v>
       </c>
       <c r="B124" s="57">
@@ -16765,7 +16761,7 @@
       </c>
     </row>
     <row r="125" spans="1:31">
-      <c r="A125" s="67" t="s">
+      <c r="A125" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B125" s="57">
@@ -16860,7 +16856,7 @@
       </c>
     </row>
     <row r="126" spans="1:31">
-      <c r="A126" s="67" t="s">
+      <c r="A126" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B126" s="57">
@@ -16955,7 +16951,7 @@
       </c>
     </row>
     <row r="127" spans="1:31">
-      <c r="A127" s="67" t="s">
+      <c r="A127" s="66" t="s">
         <v>38</v>
       </c>
       <c r="B127" s="57">
@@ -17050,7 +17046,7 @@
       </c>
     </row>
     <row r="128" spans="1:31">
-      <c r="A128" s="67" t="s">
+      <c r="A128" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B128" s="57">
@@ -17145,7 +17141,7 @@
       </c>
     </row>
     <row r="129" spans="1:31">
-      <c r="A129" s="67" t="s">
+      <c r="A129" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B129" s="57">
@@ -17240,7 +17236,7 @@
       </c>
     </row>
     <row r="130" spans="1:31">
-      <c r="A130" s="67" t="s">
+      <c r="A130" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B130" s="57">
@@ -17335,7 +17331,7 @@
       </c>
     </row>
     <row r="133" spans="1:31">
-      <c r="A133" s="67">
+      <c r="A133" s="66">
         <v>2060</v>
       </c>
       <c r="B133" s="63" t="s">
@@ -17430,2853 +17426,2853 @@
       </c>
     </row>
     <row r="134" spans="1:31">
-      <c r="A134" s="67" t="s">
+      <c r="A134" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" s="66">
+      <c r="B134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="C134" s="57">
         <v>93.53</v>
       </c>
-      <c r="D134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="E134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F134" s="66">
+      <c r="D134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="F134" s="57">
         <v>93.53</v>
       </c>
-      <c r="G134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="H134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I134" s="66">
+      <c r="G134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="H134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="I134" s="57">
         <v>93.53</v>
       </c>
-      <c r="J134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="K134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L134" s="66">
+      <c r="J134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="L134" s="57">
         <v>93.53</v>
       </c>
-      <c r="M134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="N134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O134" s="66">
+      <c r="M134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="N134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="O134" s="57">
         <v>93.53</v>
       </c>
-      <c r="P134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="Q134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R134" s="66">
+      <c r="P134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="Q134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="R134" s="57">
         <v>93.53</v>
       </c>
-      <c r="S134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="T134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U134" s="66">
+      <c r="S134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="T134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="U134" s="57">
         <v>93.53</v>
       </c>
-      <c r="V134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="W134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X134" s="66">
+      <c r="V134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="W134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="X134" s="57">
         <v>93.53</v>
       </c>
-      <c r="Y134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="Z134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA134" s="66">
+      <c r="Y134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="Z134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="AA134" s="57">
         <v>93.53</v>
       </c>
-      <c r="AB134" s="66">
-        <v>28.2</v>
-      </c>
-      <c r="AC134" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD134" s="66">
+      <c r="AB134" s="57">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="AC134" s="57">
+        <v>1279458.51</v>
+      </c>
+      <c r="AD134" s="57">
         <v>93.53</v>
       </c>
-      <c r="AE134" s="66">
-        <v>28.2</v>
+      <c r="AE134" s="57">
+        <v>28.196000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:31">
-      <c r="A135" s="67" t="s">
+      <c r="A135" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C135" s="66">
+      <c r="B135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="C135" s="57">
         <v>2000</v>
       </c>
-      <c r="D135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="E135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F135" s="66">
+      <c r="D135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="E135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="F135" s="57">
         <v>2000</v>
       </c>
-      <c r="G135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="H135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135" s="66">
+      <c r="G135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="H135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="I135" s="57">
         <v>2000</v>
       </c>
-      <c r="J135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="K135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L135" s="66">
+      <c r="J135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="K135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="L135" s="57">
         <v>2000</v>
       </c>
-      <c r="M135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="N135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O135" s="66">
+      <c r="M135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="N135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="O135" s="57">
         <v>2000</v>
       </c>
-      <c r="P135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="Q135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R135" s="66">
+      <c r="P135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="Q135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="R135" s="57">
         <v>2000</v>
       </c>
-      <c r="S135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="T135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U135" s="66">
+      <c r="S135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="T135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="U135" s="57">
         <v>2000</v>
       </c>
-      <c r="V135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="W135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X135" s="66">
+      <c r="V135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="W135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="X135" s="57">
         <v>2000</v>
       </c>
-      <c r="Y135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="Z135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA135" s="66">
+      <c r="Y135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="Z135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="AA135" s="57">
         <v>2000</v>
       </c>
-      <c r="AB135" s="66">
-        <v>395.41</v>
-      </c>
-      <c r="AC135" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD135" s="66">
+      <c r="AB135" s="57">
+        <v>395.40900000000005</v>
+      </c>
+      <c r="AC135" s="57">
+        <v>181419.97</v>
+      </c>
+      <c r="AD135" s="57">
         <v>2000</v>
       </c>
-      <c r="AE135" s="66">
-        <v>395.41</v>
+      <c r="AE135" s="57">
+        <v>395.40900000000005</v>
       </c>
     </row>
     <row r="136" spans="1:31">
-      <c r="A136" s="67" t="s">
+      <c r="A136" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="E136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="H136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="K136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="N136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="Q136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="T136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="W136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="Z136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB136" s="66">
-        <v>1470.05</v>
-      </c>
-      <c r="AC136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD136" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE136" s="66">
-        <v>1470.05</v>
+      <c r="B136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="C136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="D136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="E136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="F136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="G136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="H136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="I136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="J136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="K136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="L136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="M136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="N136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="O136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="P136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="Q136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="R136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="S136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="T136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="U136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="V136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="W136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="X136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="Y136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="Z136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="AA136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="AB136" s="57">
+        <v>1470.0490000000002</v>
+      </c>
+      <c r="AC136" s="57">
+        <v>528569.77</v>
+      </c>
+      <c r="AD136" s="57">
+        <v>2994409.14</v>
+      </c>
+      <c r="AE136" s="57">
+        <v>1470.0490000000002</v>
       </c>
     </row>
     <row r="137" spans="1:31">
-      <c r="A137" s="67" t="s">
+      <c r="A137" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="66">
+      <c r="B137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="C137" s="57">
         <v>2000</v>
       </c>
-      <c r="D137" s="66">
-        <v>0</v>
-      </c>
-      <c r="E137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F137" s="66">
+      <c r="D137" s="57">
+        <v>0</v>
+      </c>
+      <c r="E137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="F137" s="57">
         <v>2000</v>
       </c>
-      <c r="G137" s="66">
-        <v>0</v>
-      </c>
-      <c r="H137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I137" s="66">
+      <c r="G137" s="57">
+        <v>0</v>
+      </c>
+      <c r="H137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="I137" s="57">
         <v>2000</v>
       </c>
-      <c r="J137" s="66">
-        <v>0</v>
-      </c>
-      <c r="K137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L137" s="66">
+      <c r="J137" s="57">
+        <v>0</v>
+      </c>
+      <c r="K137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="L137" s="57">
         <v>2000</v>
       </c>
-      <c r="M137" s="66">
-        <v>0</v>
-      </c>
-      <c r="N137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O137" s="66">
+      <c r="M137" s="57">
+        <v>0</v>
+      </c>
+      <c r="N137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="O137" s="57">
         <v>2000</v>
       </c>
-      <c r="P137" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R137" s="66">
+      <c r="P137" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="R137" s="57">
         <v>2000</v>
       </c>
-      <c r="S137" s="66">
-        <v>0</v>
-      </c>
-      <c r="T137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U137" s="66">
+      <c r="S137" s="57">
+        <v>0</v>
+      </c>
+      <c r="T137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="U137" s="57">
         <v>2000</v>
       </c>
-      <c r="V137" s="66">
-        <v>0</v>
-      </c>
-      <c r="W137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X137" s="66">
+      <c r="V137" s="57">
+        <v>0</v>
+      </c>
+      <c r="W137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="X137" s="57">
         <v>2000</v>
       </c>
-      <c r="Y137" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA137" s="66">
+      <c r="Y137" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="AA137" s="57">
         <v>2000</v>
       </c>
-      <c r="AB137" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC137" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD137" s="66">
+      <c r="AB137" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="57">
+        <v>53492.95</v>
+      </c>
+      <c r="AD137" s="57">
         <v>2000</v>
       </c>
-      <c r="AE137" s="66">
+      <c r="AE137" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:31">
-      <c r="A138" s="67" t="s">
+      <c r="A138" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="E138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="H138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="K138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="N138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="Q138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="T138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="W138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="Z138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB138" s="66">
-        <v>21.01</v>
-      </c>
-      <c r="AC138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD138" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE138" s="66">
-        <v>21.01</v>
+      <c r="B138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="C138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="D138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="E138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="F138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="G138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="H138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="I138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="J138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="K138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="L138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="M138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="N138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="O138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="P138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="Q138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="R138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="S138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="T138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="U138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="V138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="W138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="X138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="Y138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="Z138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="AA138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="AB138" s="57">
+        <v>21.014000000000003</v>
+      </c>
+      <c r="AC138" s="57">
+        <v>2989224.62</v>
+      </c>
+      <c r="AD138" s="57">
+        <v>298970.17</v>
+      </c>
+      <c r="AE138" s="57">
+        <v>21.014000000000003</v>
       </c>
     </row>
     <row r="139" spans="1:31">
-      <c r="A139" s="67" t="s">
+      <c r="A139" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139" s="66">
+      <c r="B139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="C139" s="57">
         <v>483.22</v>
       </c>
-      <c r="D139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="E139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F139" s="66">
+      <c r="D139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="E139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="F139" s="57">
         <v>483.22</v>
       </c>
-      <c r="G139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="H139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I139" s="66">
+      <c r="G139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="H139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="I139" s="57">
         <v>483.22</v>
       </c>
-      <c r="J139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="K139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L139" s="66">
+      <c r="J139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="K139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="L139" s="57">
         <v>483.22</v>
       </c>
-      <c r="M139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="N139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O139" s="66">
+      <c r="M139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="N139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="O139" s="57">
         <v>483.22</v>
       </c>
-      <c r="P139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="Q139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R139" s="66">
+      <c r="P139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="Q139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="R139" s="57">
         <v>483.22</v>
       </c>
-      <c r="S139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="T139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U139" s="66">
+      <c r="S139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="T139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="U139" s="57">
         <v>483.22</v>
       </c>
-      <c r="V139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="W139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X139" s="66">
+      <c r="V139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="W139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="X139" s="57">
         <v>483.22</v>
       </c>
-      <c r="Y139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="Z139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA139" s="66">
+      <c r="Y139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="Z139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="AA139" s="57">
         <v>483.22</v>
       </c>
-      <c r="AB139" s="66">
-        <v>1490.66</v>
-      </c>
-      <c r="AC139" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD139" s="66">
+      <c r="AB139" s="57">
+        <v>1490.664</v>
+      </c>
+      <c r="AC139" s="57">
+        <v>19058.3</v>
+      </c>
+      <c r="AD139" s="57">
         <v>483.22</v>
       </c>
-      <c r="AE139" s="66">
-        <v>1490.66</v>
+      <c r="AE139" s="57">
+        <v>1490.664</v>
       </c>
     </row>
     <row r="140" spans="1:31">
-      <c r="A140" s="67" t="s">
+      <c r="A140" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C140" s="66">
+      <c r="B140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="C140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="D140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="E140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F140" s="66">
+      <c r="D140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="F140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="G140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="H140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I140" s="66">
+      <c r="G140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="H140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="I140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="J140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="K140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L140" s="66">
+      <c r="J140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="K140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="L140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="M140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="N140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O140" s="66">
+      <c r="M140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="N140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="O140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="P140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="Q140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R140" s="66">
+      <c r="P140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="Q140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="R140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="S140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="T140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U140" s="66">
+      <c r="S140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="T140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="U140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="V140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="W140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X140" s="66">
+      <c r="V140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="W140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="X140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="Y140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="Z140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA140" s="66">
+      <c r="Y140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="Z140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="AA140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="AB140" s="66">
-        <v>3.33</v>
-      </c>
-      <c r="AC140" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD140" s="66">
+      <c r="AB140" s="57">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="AC140" s="57">
+        <v>36903.230000000003</v>
+      </c>
+      <c r="AD140" s="57">
         <v>5284.2</v>
       </c>
-      <c r="AE140" s="66">
-        <v>3.33</v>
+      <c r="AE140" s="57">
+        <v>3.3250000000000002</v>
       </c>
     </row>
     <row r="141" spans="1:31">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="E141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="H141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="K141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="N141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="Q141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="T141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="W141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="Z141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB141" s="66">
-        <v>42.16</v>
-      </c>
-      <c r="AC141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD141" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE141" s="66">
-        <v>42.16</v>
+      <c r="B141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="C141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="D141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="E141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="F141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="G141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="H141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="I141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="J141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="K141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="L141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="M141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="N141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="O141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="P141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="Q141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="R141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="S141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="T141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="U141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="V141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="W141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="X141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="Y141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="Z141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="AA141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="AB141" s="57">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="AC141" s="57">
+        <v>3968352.74</v>
+      </c>
+      <c r="AD141" s="57">
+        <v>16538.439999999999</v>
+      </c>
+      <c r="AE141" s="57">
+        <v>42.161000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:31">
-      <c r="A142" s="67" t="s">
+      <c r="A142" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="66">
+      <c r="B142" s="57">
         <v>20.92</v>
       </c>
-      <c r="C142" s="66">
+      <c r="C142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="D142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="E142" s="66">
+      <c r="D142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="E142" s="57">
         <v>20.92</v>
       </c>
-      <c r="F142" s="66">
+      <c r="F142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="G142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="H142" s="66">
+      <c r="G142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="H142" s="57">
         <v>20.92</v>
       </c>
-      <c r="I142" s="66">
+      <c r="I142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="J142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="K142" s="66">
+      <c r="J142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="K142" s="57">
         <v>20.92</v>
       </c>
-      <c r="L142" s="66">
+      <c r="L142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="M142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="N142" s="66">
+      <c r="M142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="N142" s="57">
         <v>20.92</v>
       </c>
-      <c r="O142" s="66">
+      <c r="O142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="P142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="Q142" s="66">
+      <c r="P142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="Q142" s="57">
         <v>20.92</v>
       </c>
-      <c r="R142" s="66">
+      <c r="R142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="S142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="T142" s="66">
+      <c r="S142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="T142" s="57">
         <v>20.92</v>
       </c>
-      <c r="U142" s="66">
+      <c r="U142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="V142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="W142" s="66">
+      <c r="V142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="W142" s="57">
         <v>20.92</v>
       </c>
-      <c r="X142" s="66">
+      <c r="X142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="Y142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="Z142" s="66">
+      <c r="Y142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="Z142" s="57">
         <v>20.92</v>
       </c>
-      <c r="AA142" s="66">
+      <c r="AA142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="AB142" s="66">
-        <v>13.7</v>
-      </c>
-      <c r="AC142" s="66">
+      <c r="AB142" s="57">
+        <v>13.699000000000002</v>
+      </c>
+      <c r="AC142" s="57">
         <v>20.92</v>
       </c>
-      <c r="AD142" s="66">
+      <c r="AD142" s="57">
         <v>1091.1300000000001</v>
       </c>
-      <c r="AE142" s="66">
-        <v>13.7</v>
+      <c r="AE142" s="57">
+        <v>13.699000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:31">
-      <c r="A143" s="67" t="s">
+      <c r="A143" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="E143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="H143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="K143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="N143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="Q143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="T143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="W143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="Z143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB143" s="66">
-        <v>77.67</v>
-      </c>
-      <c r="AC143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD143" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE143" s="66">
-        <v>77.67</v>
+      <c r="B143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="C143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="D143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="E143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="F143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="G143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="H143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="I143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="J143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="K143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="L143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="M143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="N143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="O143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="P143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="Q143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="R143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="S143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="T143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="U143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="V143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="W143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="X143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="Y143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="Z143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="AA143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="AB143" s="57">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="AC143" s="57">
+        <v>1258119.9099999999</v>
+      </c>
+      <c r="AD143" s="57">
+        <v>560093.64</v>
+      </c>
+      <c r="AE143" s="57">
+        <v>77.671999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:31">
-      <c r="A144" s="67" t="s">
+      <c r="A144" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="E144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="H144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="K144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="N144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="Q144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="T144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="W144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="Z144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB144" s="66">
-        <v>607.41</v>
-      </c>
-      <c r="AC144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD144" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE144" s="66">
-        <v>607.41</v>
+      <c r="B144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="C144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="D144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="E144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="F144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="G144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="H144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="I144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="J144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="K144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="L144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="M144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="N144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="O144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="P144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="Q144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="R144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="S144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="T144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="U144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="V144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="W144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="X144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="Y144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="Z144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="AA144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="AB144" s="57">
+        <v>607.41100000000006</v>
+      </c>
+      <c r="AC144" s="57">
+        <v>368467.48</v>
+      </c>
+      <c r="AD144" s="57">
+        <v>2267964.62</v>
+      </c>
+      <c r="AE144" s="57">
+        <v>607.41100000000006</v>
       </c>
     </row>
     <row r="145" spans="1:31">
-      <c r="A145" s="67" t="s">
+      <c r="A145" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="E145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="H145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="K145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="N145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="Q145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="T145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="W145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="Z145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB145" s="66">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="AC145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD145" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE145" s="66">
-        <v>39.369999999999997</v>
+      <c r="B145" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="C145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="D145" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="E145" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="F145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="G145" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="H145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q145" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="S145" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="T145" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="U145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="V145" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="W145" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="X145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="Y145" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="Z145" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="AA145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="AB145" s="57">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="AC145" s="57">
+        <v>1924051.71</v>
+      </c>
+      <c r="AD145" s="57">
+        <v>154644.57999999999</v>
+      </c>
+      <c r="AE145" s="57">
+        <v>39.368000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:31">
-      <c r="A146" s="67" t="s">
+      <c r="A146" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B146" s="66">
+      <c r="B146" s="57">
         <v>4267.72</v>
       </c>
-      <c r="C146" s="66">
+      <c r="C146" s="57">
         <v>7295</v>
       </c>
-      <c r="D146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="E146" s="66">
+      <c r="D146" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="E146" s="57">
         <v>4267.72</v>
       </c>
-      <c r="F146" s="66">
+      <c r="F146" s="57">
         <v>7295</v>
       </c>
-      <c r="G146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="H146" s="66">
+      <c r="G146" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="H146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q146" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R146" s="57">
+        <v>7295</v>
+      </c>
+      <c r="S146" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="T146" s="57">
         <v>4267.72</v>
       </c>
-      <c r="I146" s="66">
+      <c r="U146" s="57">
         <v>7295</v>
       </c>
-      <c r="J146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="K146" s="66">
+      <c r="V146" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="W146" s="57">
         <v>4267.72</v>
       </c>
-      <c r="L146" s="66">
+      <c r="X146" s="57">
         <v>7295</v>
       </c>
-      <c r="M146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="N146" s="66">
+      <c r="Y146" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="Z146" s="57">
         <v>4267.72</v>
       </c>
-      <c r="O146" s="66">
+      <c r="AA146" s="57">
         <v>7295</v>
       </c>
-      <c r="P146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="Q146" s="66">
+      <c r="AB146" s="57">
+        <v>65.037000000000006</v>
+      </c>
+      <c r="AC146" s="57">
         <v>4267.72</v>
       </c>
-      <c r="R146" s="66">
+      <c r="AD146" s="57">
         <v>7295</v>
       </c>
-      <c r="S146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="T146" s="66">
-        <v>4267.72</v>
-      </c>
-      <c r="U146" s="66">
-        <v>7295</v>
-      </c>
-      <c r="V146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="W146" s="66">
-        <v>4267.72</v>
-      </c>
-      <c r="X146" s="66">
-        <v>7295</v>
-      </c>
-      <c r="Y146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="Z146" s="66">
-        <v>4267.72</v>
-      </c>
-      <c r="AA146" s="66">
-        <v>7295</v>
-      </c>
-      <c r="AB146" s="66">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="AC146" s="66">
-        <v>4267.72</v>
-      </c>
-      <c r="AD146" s="66">
-        <v>7295</v>
-      </c>
-      <c r="AE146" s="66">
-        <v>65.040000000000006</v>
+      <c r="AE146" s="57">
+        <v>65.037000000000006</v>
       </c>
     </row>
     <row r="147" spans="1:31">
-      <c r="A147" s="67" t="s">
+      <c r="A147" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C147" s="66">
+      <c r="B147" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="C147" s="57">
         <v>2000</v>
       </c>
-      <c r="D147" s="66">
-        <v>0</v>
-      </c>
-      <c r="E147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F147" s="66">
+      <c r="D147" s="57">
+        <v>0</v>
+      </c>
+      <c r="E147" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="F147" s="57">
         <v>2000</v>
       </c>
-      <c r="G147" s="66">
-        <v>0</v>
-      </c>
-      <c r="H147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I147" s="66">
+      <c r="G147" s="57">
+        <v>0</v>
+      </c>
+      <c r="H147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q147" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R147" s="57">
         <v>2000</v>
       </c>
-      <c r="J147" s="66">
-        <v>0</v>
-      </c>
-      <c r="K147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L147" s="66">
+      <c r="S147" s="57">
+        <v>0</v>
+      </c>
+      <c r="T147" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="U147" s="57">
         <v>2000</v>
       </c>
-      <c r="M147" s="66">
-        <v>0</v>
-      </c>
-      <c r="N147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O147" s="66">
+      <c r="V147" s="57">
+        <v>0</v>
+      </c>
+      <c r="W147" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="X147" s="57">
         <v>2000</v>
       </c>
-      <c r="P147" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R147" s="66">
+      <c r="Y147" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="AA147" s="57">
         <v>2000</v>
       </c>
-      <c r="S147" s="66">
-        <v>0</v>
-      </c>
-      <c r="T147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U147" s="66">
+      <c r="AB147" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="57">
+        <v>94873.11</v>
+      </c>
+      <c r="AD147" s="57">
         <v>2000</v>
       </c>
-      <c r="V147" s="66">
-        <v>0</v>
-      </c>
-      <c r="W147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X147" s="66">
+      <c r="AE147" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31">
+      <c r="A148" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="C148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="D148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="E148" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="F148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="G148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="H148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q148" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="S148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="T148" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="U148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="V148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="W148" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="X148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="Y148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Z148" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AA148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AB148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="AC148" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AD148" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AE148" s="57">
+        <v>266.13300000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31">
+      <c r="A149" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="C149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="D149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="E149" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="F149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="G149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="H149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q149" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="S149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="T149" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="U149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="V149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="W149" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="X149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="Y149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Z149" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AA149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AB149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="AC149" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AD149" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AE149" s="57">
+        <v>162.12700000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31">
+      <c r="A150" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="C150" s="57">
         <v>2000</v>
       </c>
-      <c r="Y147" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA147" s="66">
+      <c r="D150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E150" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="F150" s="57">
         <v>2000</v>
       </c>
-      <c r="AB147" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC147" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD147" s="66">
+      <c r="G150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q150" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R150" s="57">
         <v>2000</v>
       </c>
-      <c r="AE147" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:31">
-      <c r="A148" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="E148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="H148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="K148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="N148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="Q148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="T148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="W148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="Z148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB148" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="AC148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD148" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE148" s="66">
-        <v>266.13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:31">
-      <c r="A149" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="E149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="H149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="K149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="N149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="Q149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="T149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="W149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="Z149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB149" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="AC149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD149" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE149" s="66">
-        <v>162.13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:31">
-      <c r="A150" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C150" s="66">
+      <c r="S150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T150" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="U150" s="57">
         <v>2000</v>
       </c>
-      <c r="D150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="E150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F150" s="66">
+      <c r="V150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="W150" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="X150" s="57">
         <v>2000</v>
       </c>
-      <c r="G150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="H150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I150" s="66">
+      <c r="Y150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Z150" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AA150" s="57">
         <v>2000</v>
       </c>
-      <c r="J150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="K150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L150" s="66">
+      <c r="AB150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AC150" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AD150" s="57">
         <v>2000</v>
       </c>
-      <c r="M150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="N150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O150" s="66">
+      <c r="AE150" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31">
+      <c r="A151" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="C151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="D151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="E151" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="F151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="G151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="H151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q151" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="S151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="T151" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="U151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="V151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="W151" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="X151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="Y151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Z151" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AA151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AB151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="AC151" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AD151" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AE151" s="57">
+        <v>82.460000000000008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31">
+      <c r="A152" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="C152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="D152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="E152" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="F152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="G152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="H152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="I152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="J152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="K152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="L152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="M152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="N152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="O152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="P152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="Q152" s="57">
+        <v>1111</v>
+      </c>
+      <c r="R152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="S152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="T152" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="U152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="V152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="W152" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="X152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="Y152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Z152" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AA152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AB152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="AC152" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AD152" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AE152" s="57">
+        <v>339.81500000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31">
+      <c r="A153" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="C153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="D153" s="57">
+        <v>0</v>
+      </c>
+      <c r="E153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="F153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="G153" s="57">
+        <v>0</v>
+      </c>
+      <c r="H153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="I153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="J153" s="57">
+        <v>0</v>
+      </c>
+      <c r="K153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="L153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="M153" s="57">
+        <v>0</v>
+      </c>
+      <c r="N153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="O153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="P153" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="R153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="S153" s="57">
+        <v>0</v>
+      </c>
+      <c r="T153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="U153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="V153" s="57">
+        <v>0</v>
+      </c>
+      <c r="W153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="X153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="Y153" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AA153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="AB153" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AD153" s="57">
+        <v>4286.59</v>
+      </c>
+      <c r="AE153" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31">
+      <c r="A154" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="C154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="D154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="E154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="F154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="G154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="H154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="I154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="J154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="K154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="L154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="M154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="N154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="O154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="P154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="Q154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="R154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="S154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="T154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="U154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="V154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="W154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="X154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="Y154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="Z154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AA154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AB154" s="57">
+        <v>851.2</v>
+      </c>
+      <c r="AC154" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AD154" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AE154" s="57">
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31">
+      <c r="A155" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="C155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="D155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="E155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="F155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="G155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="H155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="I155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="J155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="K155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="L155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="M155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="N155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="O155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="P155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Q155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="R155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="S155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="T155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="U155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="V155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="W155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="X155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="Y155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Z155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AA155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AB155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="AC155" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AD155" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AE155" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31">
+      <c r="A156" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="C156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="D156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="E156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="F156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="G156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="H156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="I156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="J156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="K156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="L156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="M156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="N156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="O156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="P156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Q156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="R156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="S156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="T156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="U156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="V156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="W156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="X156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="Y156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="Z156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AA156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AB156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+      <c r="AC156" s="57">
+        <v>62823.360000000001</v>
+      </c>
+      <c r="AD156" s="57">
+        <v>1061920.8400000001</v>
+      </c>
+      <c r="AE156" s="57">
+        <v>266.13300000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31">
+      <c r="A157" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="C157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="D157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="E157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="F157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="G157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="H157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="I157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="J157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="K157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="L157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="M157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="N157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="O157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="P157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Q157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="R157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="S157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="T157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="U157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="V157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="W157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="X157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="Y157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="Z157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AA157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AB157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="AC157" s="57">
+        <v>105626.09</v>
+      </c>
+      <c r="AD157" s="57">
+        <v>36880.26</v>
+      </c>
+      <c r="AE157" s="57">
+        <v>162.12700000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31">
+      <c r="A158" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="C158" s="57">
         <v>2000</v>
       </c>
-      <c r="P150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="Q150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R150" s="66">
+      <c r="D158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="F158" s="57">
         <v>2000</v>
       </c>
-      <c r="S150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="T150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U150" s="66">
+      <c r="G158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="I158" s="57">
         <v>2000</v>
       </c>
-      <c r="V150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="W150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X150" s="66">
+      <c r="J158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="L158" s="57">
         <v>2000</v>
       </c>
-      <c r="Y150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="Z150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA150" s="66">
+      <c r="M158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="O158" s="57">
         <v>2000</v>
       </c>
-      <c r="AB150" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="AC150" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD150" s="66">
+      <c r="P158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="R158" s="57">
         <v>2000</v>
       </c>
-      <c r="AE150" s="66">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:31">
-      <c r="A151" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="E151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="H151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="K151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="N151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="Q151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="T151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="W151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="Z151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB151" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="AC151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD151" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE151" s="66">
-        <v>82.46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31">
-      <c r="A152" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="E152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="H152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="K152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="N152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="Q152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="T152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="W152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="Z152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB152" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="AC152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD152" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE152" s="66">
-        <v>339.82</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31">
-      <c r="A153" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C153" s="66">
+      <c r="S158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="U158" s="57">
+        <v>2000</v>
+      </c>
+      <c r="V158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="W158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="X158" s="57">
+        <v>2000</v>
+      </c>
+      <c r="Y158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Z158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AA158" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AB158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AC158" s="57">
+        <v>85438.1</v>
+      </c>
+      <c r="AD158" s="57">
+        <v>2000</v>
+      </c>
+      <c r="AE158" s="57">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31">
+      <c r="A159" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="C159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="D159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="E159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="F159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="G159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="H159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="I159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="J159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="K159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="L159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="M159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="N159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="O159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="P159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Q159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="R159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="S159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="T159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="U159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="V159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="W159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="X159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="Y159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="Z159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AA159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AB159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+      <c r="AC159" s="57">
+        <v>123994.03</v>
+      </c>
+      <c r="AD159" s="57">
+        <v>326451.11</v>
+      </c>
+      <c r="AE159" s="57">
+        <v>82.460000000000008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31">
+      <c r="A160" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="C160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="D160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="E160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="F160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="G160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="H160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="I160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="J160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="K160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="L160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="M160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="N160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="O160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="P160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Q160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="R160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="S160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="T160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="U160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="V160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="W160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="X160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="Y160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="Z160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AA160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AB160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+      <c r="AC160" s="57">
+        <v>25628081.809999999</v>
+      </c>
+      <c r="AD160" s="57">
+        <v>11144261.09</v>
+      </c>
+      <c r="AE160" s="57">
+        <v>339.81500000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31">
+      <c r="A161" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="C161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="D153" s="66">
-        <v>0</v>
-      </c>
-      <c r="E153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F153" s="66">
+      <c r="D161" s="57">
+        <v>0</v>
+      </c>
+      <c r="E161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="F161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="G153" s="66">
-        <v>0</v>
-      </c>
-      <c r="H153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I153" s="66">
+      <c r="G161" s="57">
+        <v>0</v>
+      </c>
+      <c r="H161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="I161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="J153" s="66">
-        <v>0</v>
-      </c>
-      <c r="K153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L153" s="66">
+      <c r="J161" s="57">
+        <v>0</v>
+      </c>
+      <c r="K161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="L161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="M153" s="66">
-        <v>0</v>
-      </c>
-      <c r="N153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O153" s="66">
+      <c r="M161" s="57">
+        <v>0</v>
+      </c>
+      <c r="N161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="O161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="P153" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R153" s="66">
+      <c r="P161" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="R161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="S153" s="66">
-        <v>0</v>
-      </c>
-      <c r="T153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U153" s="66">
+      <c r="S161" s="57">
+        <v>0</v>
+      </c>
+      <c r="T161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="U161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="V153" s="66">
-        <v>0</v>
-      </c>
-      <c r="W153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X153" s="66">
+      <c r="V161" s="57">
+        <v>0</v>
+      </c>
+      <c r="W161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="X161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="Y153" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA153" s="66">
+      <c r="Y161" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AA161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="AB153" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC153" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD153" s="66">
+      <c r="AB161" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="57">
+        <v>3600596.54</v>
+      </c>
+      <c r="AD161" s="57">
         <v>4286.59</v>
       </c>
-      <c r="AE153" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31">
-      <c r="A154" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D154" s="66">
+      <c r="AE161" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31">
+      <c r="A162" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="C162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="D162" s="57">
         <v>851.2</v>
       </c>
-      <c r="E154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G154" s="66">
+      <c r="E162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="F162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="G162" s="57">
         <v>851.2</v>
       </c>
-      <c r="H154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J154" s="66">
+      <c r="H162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="I162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="J162" s="57">
         <v>851.2</v>
       </c>
-      <c r="K154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M154" s="66">
+      <c r="K162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="L162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="M162" s="57">
         <v>851.2</v>
       </c>
-      <c r="N154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P154" s="66">
+      <c r="N162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="O162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="P162" s="57">
         <v>851.2</v>
       </c>
-      <c r="Q154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S154" s="66">
+      <c r="Q162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="R162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="S162" s="57">
         <v>851.2</v>
       </c>
-      <c r="T154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V154" s="66">
+      <c r="T162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="U162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="V162" s="57">
         <v>851.2</v>
       </c>
-      <c r="W154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y154" s="66">
+      <c r="W162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="X162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="Y162" s="57">
         <v>851.2</v>
       </c>
-      <c r="Z154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB154" s="66">
+      <c r="Z162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AA162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AB162" s="57">
         <v>851.2</v>
       </c>
-      <c r="AC154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD154" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE154" s="66">
+      <c r="AC162" s="57">
+        <v>795846.25</v>
+      </c>
+      <c r="AD162" s="57">
+        <v>2060509.26</v>
+      </c>
+      <c r="AE162" s="57">
         <v>851.2</v>
       </c>
     </row>
-    <row r="155" spans="1:31">
-      <c r="A155" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="E155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="H155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="K155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="N155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="Q155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="T155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="W155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="Z155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB155" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="AC155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD155" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE155" s="66">
-        <v>6296.49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31">
-      <c r="A156" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="E156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="H156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="K156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="N156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="Q156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="T156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="W156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="Z156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB156" s="66">
-        <v>266.13</v>
-      </c>
-      <c r="AC156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD156" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE156" s="66">
-        <v>266.13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31">
-      <c r="A157" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="E157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="H157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="K157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="N157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="Q157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="T157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="W157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="Z157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB157" s="66">
-        <v>162.13</v>
-      </c>
-      <c r="AC157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD157" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE157" s="66">
-        <v>162.13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31">
-      <c r="A158" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="D158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="E158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="G158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="H158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="J158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="K158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="M158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="N158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="P158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="Q158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="S158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="T158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="V158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="W158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="Y158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="Z158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="AB158" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="AC158" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD158" s="66">
-        <v>2000</v>
-      </c>
-      <c r="AE158" s="66">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31">
-      <c r="A159" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="E159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="H159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="K159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="N159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="Q159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="T159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="W159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="Z159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB159" s="66">
-        <v>82.46</v>
-      </c>
-      <c r="AC159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD159" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE159" s="66">
-        <v>82.46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:31">
-      <c r="A160" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="E160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="H160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="K160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="N160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="Q160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="T160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="W160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="Z160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB160" s="66">
-        <v>339.82</v>
-      </c>
-      <c r="AC160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD160" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE160" s="66">
-        <v>339.82</v>
-      </c>
-    </row>
-    <row r="161" spans="1:31">
-      <c r="A161" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="D161" s="66">
-        <v>0</v>
-      </c>
-      <c r="E161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="G161" s="66">
-        <v>0</v>
-      </c>
-      <c r="H161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="J161" s="66">
-        <v>0</v>
-      </c>
-      <c r="K161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="M161" s="66">
-        <v>0</v>
-      </c>
-      <c r="N161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="P161" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="S161" s="66">
-        <v>0</v>
-      </c>
-      <c r="T161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="V161" s="66">
-        <v>0</v>
-      </c>
-      <c r="W161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="Y161" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="AB161" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC161" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD161" s="66">
-        <v>4286.59</v>
-      </c>
-      <c r="AE161" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:31">
-      <c r="A162" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="E162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="H162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="K162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="N162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="Q162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="T162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="W162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="Z162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB162" s="66">
-        <v>851.2</v>
-      </c>
-      <c r="AC162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD162" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE162" s="66">
-        <v>851.2</v>
-      </c>
-    </row>
     <row r="163" spans="1:31">
-      <c r="A163" s="67" t="s">
+      <c r="A163" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="E163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="H163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="K163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="L163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="N163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="O163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="P163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="Q163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="S163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="T163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="U163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="W163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="X163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="Z163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB163" s="66">
-        <v>6296.49</v>
-      </c>
-      <c r="AC163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD163" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE163" s="66">
-        <v>6296.49</v>
+      <c r="B163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="C163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="D163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="E163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="F163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="G163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="H163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="I163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="J163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="K163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="L163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="M163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="N163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="O163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="P163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Q163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="R163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="S163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="T163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="U163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="V163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="W163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="X163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="Y163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="Z163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AA163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AB163" s="57">
+        <v>6296.4860000000008</v>
+      </c>
+      <c r="AC163" s="57">
+        <v>4249101.82</v>
+      </c>
+      <c r="AD163" s="57">
+        <v>8772872.7400000002</v>
+      </c>
+      <c r="AE163" s="57">
+        <v>6296.4860000000008</v>
       </c>
     </row>
   </sheetData>
@@ -28478,14 +28474,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="50" t="s">
@@ -28915,14 +28911,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="50" t="s">
@@ -28937,14 +28933,14 @@
       <c r="E2" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
